--- a/TAREA/EstacionesMetroCDMX.xlsx
+++ b/TAREA/EstacionesMetroCDMX.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Personal\TAREA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93593BDC-AF28-47BB-B3F1-F7D2E6A46A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA6B1CC-287A-4716-ADAD-E0A28DD6C886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EstacionesMetroCDMX_2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="166">
   <si>
     <t>Salida</t>
   </si>
@@ -193,9 +203,6 @@
     <t>Eugenia</t>
   </si>
   <si>
-    <t>División del norte</t>
-  </si>
-  <si>
     <t>Guerrero</t>
   </si>
   <si>
@@ -217,12 +224,6 @@
     <t>Miguel Ángel de Quevedo</t>
   </si>
   <si>
-    <t> Hospital General</t>
-  </si>
-  <si>
-    <t>Zapat</t>
-  </si>
-  <si>
     <t>Bondojito</t>
   </si>
   <si>
@@ -268,18 +269,12 @@
     <t>Instituto del Petróleo</t>
   </si>
   <si>
-    <t>isterios</t>
-  </si>
-  <si>
     <t>Misterios</t>
   </si>
   <si>
     <t>Valle Gómez</t>
   </si>
   <si>
-    <t>erminal Aérea</t>
-  </si>
-  <si>
     <t>Politécnico</t>
   </si>
   <si>
@@ -292,9 +287,6 @@
     <t>Ferrería</t>
   </si>
   <si>
-    <t>La Villa  Basílica</t>
-  </si>
-  <si>
     <t>El Rosario</t>
   </si>
   <si>
@@ -451,9 +443,6 @@
     <t>Tláhuac</t>
   </si>
   <si>
-    <t>Tlaltenco </t>
-  </si>
-  <si>
     <t>Tlaltenco</t>
   </si>
   <si>
@@ -499,12 +488,6 @@
     <t>Plaza Aragón</t>
   </si>
   <si>
-    <t> Oceanía</t>
-  </si>
-  <si>
-    <t>Ecatepe</t>
-  </si>
-  <si>
     <t>Múzquiz</t>
   </si>
   <si>
@@ -542,6 +525,9 @@
   </si>
   <si>
     <t>Llegadas</t>
+  </si>
+  <si>
+    <t>La Villa Basílica</t>
   </si>
 </sst>
 </file>
@@ -807,18 +793,23 @@
   </sheetPr>
   <dimension ref="A1:C184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1368,7 +1359,7 @@
         <v>56</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2">
         <v>715</v>
@@ -1376,7 +1367,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>36</v>
@@ -1390,7 +1381,7 @@
         <v>36</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C53" s="2">
         <v>251</v>
@@ -1398,7 +1389,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>46</v>
@@ -1409,7 +1400,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>52</v>
@@ -1420,7 +1411,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>4</v>
@@ -1431,10 +1422,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="C57" s="3">
         <v>1445</v>
@@ -1442,7 +1433,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>48</v>
@@ -1456,7 +1447,7 @@
         <v>45</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C59" s="3">
         <v>559</v>
@@ -1467,7 +1458,7 @@
         <v>53</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C60" s="3">
         <v>1106</v>
@@ -1475,10 +1466,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C61" s="2">
         <v>1042</v>
@@ -1489,7 +1480,7 @@
         <v>51</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C62" s="3">
         <v>824</v>
@@ -1497,7 +1488,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>50</v>
@@ -1508,10 +1499,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C64" s="2">
         <v>959</v>
@@ -1519,10 +1510,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C65" s="3">
         <v>884</v>
@@ -1533,7 +1524,7 @@
         <v>7</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C66" s="2">
         <v>1062</v>
@@ -1541,10 +1532,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C67" s="2">
         <v>645</v>
@@ -1552,7 +1543,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>7</v>
@@ -1563,10 +1554,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C69" s="2">
         <v>1033</v>
@@ -1574,10 +1565,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C70" s="2">
         <v>910</v>
@@ -1585,10 +1576,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C71" s="3">
         <v>758</v>
@@ -1596,10 +1587,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C72" s="3">
         <v>1129</v>
@@ -1607,10 +1598,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C73" s="2">
         <v>1219</v>
@@ -1618,10 +1609,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C74" s="2">
         <v>975</v>
@@ -1629,10 +1620,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C75" s="2">
         <v>815</v>
@@ -1640,10 +1631,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C76" s="3">
         <v>860</v>
@@ -1651,7 +1642,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>19</v>
@@ -1662,10 +1653,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C78" s="2">
         <v>1067</v>
@@ -1673,10 +1664,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C79" s="2">
         <v>892</v>
@@ -1684,10 +1675,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C80" s="3">
         <v>969</v>
@@ -1695,10 +1686,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C81" s="3">
         <v>1174</v>
@@ -1706,10 +1697,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C82" s="3">
         <v>1188</v>
@@ -1717,10 +1708,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C83" s="2">
         <v>1153</v>
@@ -1728,10 +1719,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C84" s="3">
         <v>679</v>
@@ -1739,10 +1730,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C85" s="2">
         <v>1173</v>
@@ -1753,7 +1744,7 @@
         <v>52</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="C86" s="3">
         <v>570</v>
@@ -1761,10 +1752,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C87" s="3">
         <v>1257</v>
@@ -1772,10 +1763,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C88" s="3">
         <v>1072</v>
@@ -1783,10 +1774,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C89" s="3">
         <v>1258</v>
@@ -1794,10 +1785,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>90</v>
+        <v>165</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C90" s="3">
         <v>1141</v>
@@ -1805,7 +1796,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>52</v>
@@ -1816,10 +1807,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C92" s="2">
         <v>660</v>
@@ -1827,10 +1818,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C93" s="2">
         <v>973</v>
@@ -1838,10 +1829,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C94" s="3">
         <v>755</v>
@@ -1849,10 +1840,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C95" s="3">
         <v>1402</v>
@@ -1860,10 +1851,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C96" s="2">
         <v>1430</v>
@@ -1871,10 +1862,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C97" s="3">
         <v>952</v>
@@ -1882,7 +1873,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>16</v>
@@ -1893,10 +1884,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C99" s="3">
         <v>1615</v>
@@ -1904,10 +1895,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C100" s="2">
         <v>1476</v>
@@ -1915,10 +1906,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C101" s="3">
         <v>812</v>
@@ -1926,7 +1917,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>40</v>
@@ -1937,10 +1928,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C103" s="3">
         <v>788</v>
@@ -1948,10 +1939,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C104" s="2">
         <v>1163</v>
@@ -1959,10 +1950,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C105" s="3">
         <v>606</v>
@@ -1973,7 +1964,7 @@
         <v>40</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C106" s="3">
         <v>1433</v>
@@ -1984,7 +1975,7 @@
         <v>16</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C107" s="2">
         <v>1084</v>
@@ -1992,10 +1983,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C108" s="2">
         <v>789</v>
@@ -2003,10 +1994,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C109" s="2">
         <v>534</v>
@@ -2014,10 +2005,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C110" s="2">
         <v>732</v>
@@ -2028,7 +2019,7 @@
         <v>24</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C111" s="3">
         <v>456</v>
@@ -2036,10 +2027,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C112" s="2">
         <v>1135</v>
@@ -2050,7 +2041,7 @@
         <v>25</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C113" s="2">
         <v>843</v>
@@ -2058,10 +2049,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C114" s="2">
         <v>993</v>
@@ -2069,10 +2060,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C115" s="3">
         <v>761</v>
@@ -2080,10 +2071,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C116" s="2">
         <v>1738</v>
@@ -2091,7 +2082,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>24</v>
@@ -2102,10 +2093,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C118" s="2">
         <v>910</v>
@@ -2113,10 +2104,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C119" s="2">
         <v>717</v>
@@ -2124,10 +2115,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C120" s="3">
         <v>633</v>
@@ -2135,7 +2126,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>25</v>
@@ -2149,7 +2140,7 @@
         <v>15</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C122" s="2">
         <v>564</v>
@@ -2157,7 +2148,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>15</v>
@@ -2168,10 +2159,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C124" s="3">
         <v>968</v>
@@ -2179,10 +2170,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C125" s="3">
         <v>1137</v>
@@ -2193,7 +2184,7 @@
         <v>46</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C126" s="3">
         <v>1152</v>
@@ -2204,7 +2195,7 @@
         <v>25</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C127" s="2">
         <v>1000</v>
@@ -2212,10 +2203,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C128" s="3">
         <v>955</v>
@@ -2223,10 +2214,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C129" s="3">
         <v>1110</v>
@@ -2234,7 +2225,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>25</v>
@@ -2245,7 +2236,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>46</v>
@@ -2256,10 +2247,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C132" s="3">
         <v>942</v>
@@ -2270,7 +2261,7 @@
         <v>19</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C133" s="3">
         <v>1380</v>
@@ -2278,7 +2269,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>16</v>
@@ -2289,10 +2280,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C135" s="2">
         <v>800</v>
@@ -2300,10 +2291,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C136" s="3">
         <v>821</v>
@@ -2311,10 +2302,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C137" s="2">
         <v>1922</v>
@@ -2322,10 +2313,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C138" s="3">
         <v>906</v>
@@ -2333,10 +2324,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C139" s="3">
         <v>1671</v>
@@ -2344,10 +2335,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C140" s="2">
         <v>1280</v>
@@ -2358,7 +2349,7 @@
         <v>33</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C141" s="2">
         <v>895</v>
@@ -2366,10 +2357,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C142" s="2">
         <v>725</v>
@@ -2377,10 +2368,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C143" s="3">
         <v>651</v>
@@ -2388,10 +2379,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="C144" s="3">
         <v>1060</v>
@@ -2399,7 +2390,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>33</v>
@@ -2410,10 +2401,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C146" s="2">
         <v>1360</v>
@@ -2421,10 +2412,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C147" s="2">
         <v>490</v>
@@ -2432,7 +2423,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>55</v>
@@ -2443,10 +2434,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C149" s="2">
         <v>1111</v>
@@ -2454,10 +2445,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C150" s="3">
         <v>990</v>
@@ -2465,10 +2456,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C151" s="3">
         <v>1545</v>
@@ -2476,10 +2467,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C152" s="3">
         <v>1298</v>
@@ -2487,10 +2478,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C153" s="2">
         <v>1115</v>
@@ -2501,7 +2492,7 @@
         <v>55</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C154" s="3">
         <v>450</v>
@@ -2509,10 +2500,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C155" s="3">
         <v>1276</v>
@@ -2520,10 +2511,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C156" s="3">
         <v>1100</v>
@@ -2531,10 +2522,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C157" s="3">
         <v>1093</v>
@@ -2542,10 +2533,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C158" s="3">
         <v>1456</v>
@@ -2553,10 +2544,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C159" s="3">
         <v>2206</v>
@@ -2564,10 +2555,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C160" s="3">
         <v>1956</v>
@@ -2578,7 +2569,7 @@
         <v>19</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C161" s="3">
         <v>1409</v>
@@ -2586,10 +2577,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C162" s="3">
         <v>1379</v>
@@ -2597,10 +2588,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C163" s="3">
         <v>1783</v>
@@ -2608,10 +2599,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C164" s="3">
         <v>1161</v>
@@ -2619,10 +2610,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C165" s="2">
         <v>1165</v>
@@ -2630,10 +2621,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C166" s="2">
         <v>574</v>
@@ -2641,10 +2632,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>159</v>
+        <v>74</v>
       </c>
       <c r="C167" s="3">
         <v>863</v>
@@ -2652,10 +2643,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C168" s="2">
         <v>1485</v>
@@ -2663,10 +2654,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C169" s="2">
         <v>757</v>
@@ -2674,10 +2665,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C170" s="3">
         <v>521</v>
@@ -2685,10 +2676,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="C171" s="2">
         <v>1393</v>
@@ -2696,10 +2687,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C172" s="2">
         <v>474</v>
@@ -2707,10 +2698,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C173" s="3">
         <v>498</v>
@@ -2718,10 +2709,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C174" s="3">
         <v>1155</v>
@@ -2729,10 +2720,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="C175" s="2">
         <v>1335</v>
@@ -2740,10 +2731,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C176" s="2">
         <v>809</v>
@@ -2751,10 +2742,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C177" s="2">
         <v>596</v>
@@ -2762,10 +2753,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C178" s="2">
         <v>709</v>
@@ -2773,7 +2764,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>18</v>
@@ -2784,10 +2775,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="C180" s="2">
         <v>436</v>
@@ -2795,10 +2786,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C181" s="3">
         <v>908</v>
@@ -2809,7 +2800,7 @@
         <v>18</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C182" s="2">
         <v>1296</v>
@@ -2817,10 +2808,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C183" s="2">
         <v>611</v>
@@ -2828,10 +2819,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C184" s="2">
         <v>784</v>
